--- a/tests/issues_conditions.xlsx
+++ b/tests/issues_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milan/supplyframe/rsbom/calamine/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C41D7-B29B-2043-A07D-04373E8EAA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E323E-B61F-3340-A042-D541D9BDD1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2880" windowWidth="27640" windowHeight="16940" xr2:uid="{45FE7CD3-C32A-4F49-9602-C84718538029}"/>
+    <workbookView xWindow="7340" yWindow="4780" windowWidth="27640" windowHeight="16940" xr2:uid="{45FE7CD3-C32A-4F49-9602-C84718538029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="21">
+  <numFmts count="22">
     <numFmt numFmtId="164" formatCode="&quot;foo&quot;;&quot;bar&quot;;&quot;baz&quot;;&quot;bla&quot;"/>
     <numFmt numFmtId="165" formatCode="[&gt;5.5]&quot;aa&quot;;[&lt;5.5]&quot;bb&quot;"/>
     <numFmt numFmtId="166" formatCode="[&gt;=100]0.00;[&gt;=10]dd\/mm\/yyyy;0.0"/>
@@ -68,8 +68,9 @@
     <numFmt numFmtId="180" formatCode="[&gt;10]0.0;;0.000"/>
     <numFmt numFmtId="181" formatCode="[&gt;10]General;0.000"/>
     <numFmt numFmtId="182" formatCode="[Magenta][&gt;=100]\.00;General"/>
+    <numFmt numFmtId="183" formatCode="0.000000000000000000000000000000"/>
     <numFmt numFmtId="188" formatCode="[&lt;0]0.0;[&gt;0]m\/d\/yy;0.00"/>
-    <numFmt numFmtId="189" formatCode="[&lt;2305843009213690000]0.0;[&gt;0]m\/d\/yy;0.00"/>
+    <numFmt numFmtId="190" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -123,8 +124,9 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7383403F-4245-0A4F-98CF-03E16D3F197F}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="1" max="1" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -553,22 +555,34 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>20000</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24">
+        <v>2.3058430092136901E+18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
+        <v>2.3058430092136901E+18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1.9950000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
